--- a/biology/Zoologie/Heterogaster_antiquus/Heterogaster_antiquus.xlsx
+++ b/biology/Zoologie/Heterogaster_antiquus/Heterogaster_antiquus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterogaster antiquus est une espèce fossile de punaises de la famille des Heterogastridae, dans le genre Heterogaster.
 </t>
@@ -511,19 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Heterogaster antiquus est décrite en 1853 par le naturaliste suisse Oswald Heer (1809-1883)[1],[2]. 
-Citations
-L'espèce Heterogaster antiquus est citée en 1856 par Oswald Heer[3],[2] et en 1937 par Nicolas Théobald qui rajoute une collection[4],[2].
-Fossiles
-L'holotype de l'ère Cénozoïque et de l'époque Oligocène (28,1 à 23,03 Ma) vient de la collection Murchison et de la localité d'Aix-en-Provence dans le département des Bouches-du-Rhône en France, et décrit par John Curtis en 1829[5],[2].
-Il y a aussi deux autres collections d'Aix-en-Provence décrites en 1915 par Fernand Meunier[6] et en 1937 par Nicolas Théobald[4],[2].
-Famille
-En 1937, cette espèce a été classée dans la famille des Lygaeidae[4].
-Les Heterogastrinae seront élevés au rang de famille à part entière, les Heterogastridae en 1997 par l'entomologiste américain Thomas J. Henry (d)[7].
-Étymologie
-L'épithète spécifique antiquus signifie en latin « ancien ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Heterogaster antiquus est décrite en 1853 par le naturaliste suisse Oswald Heer (1809-1883),. 
 </t>
         </is>
       </c>
@@ -549,18 +553,245 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Heterogaster antiquus est citée en 1856 par Oswald Heer, et en 1937 par Nicolas Théobald qui rajoute une collection,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heterogaster_antiquus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterogaster_antiquus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de l'ère Cénozoïque et de l'époque Oligocène (28,1 à 23,03 Ma) vient de la collection Murchison et de la localité d'Aix-en-Provence dans le département des Bouches-du-Rhône en France, et décrit par John Curtis en 1829,.
+Il y a aussi deux autres collections d'Aix-en-Provence décrites en 1915 par Fernand Meunier et en 1937 par Nicolas Théobald,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heterogaster_antiquus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterogaster_antiquus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1937, cette espèce a été classée dans la famille des Lygaeidae.
+Les Heterogastrinae seront élevés au rang de famille à part entière, les Heterogastridae en 1997 par l'entomologiste américain Thomas J. Henry (d).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heterogaster_antiquus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterogaster_antiquus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique antiquus signifie en latin « ancien ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heterogaster_antiquus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterogaster_antiquus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[4],[note 1] : 
-« Nous figurons un exemplaire (AS7) d'Aix qui représente sans doute le sexe ♂ du H. antiquus Heer. »[4].
-Dimensions
-La longueur totale, y compris les organes génitaux mâles exsertes, est de 9 mm[4].
-Affinités
-« Deux autres échantillons de l'Oligocène d'Aix, AS6 (Inst. de Géol. de Strasbourg), Am127 (Coll. Museum Paris). »[4].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Nous figurons un exemplaire (AS7) d'Aix qui représente sans doute le sexe ♂ du H. antiquus Heer. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heterogaster_antiquus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterogaster_antiquus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale, y compris les organes génitaux mâles exsertes, est de 9 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heterogaster_antiquus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterogaster_antiquus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Deux autres échantillons de l'Oligocène d'Aix, AS6 (Inst. de Géol. de Strasbourg), Am127 (Coll. Museum Paris). ».
 </t>
         </is>
       </c>
